--- a/results/20250402/evaluation_scene_noisy_0.1.xlsx
+++ b/results/20250402/evaluation_scene_noisy_0.1.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.40686</v>
+        <v>0.84231</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01619</v>
+        <v>0.00639</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.30421</v>
+        <v>0.4565</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01909</v>
+        <v>0.01996</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.40511</v>
+        <v>0.84305</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01711</v>
+        <v>0.00666</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.30861</v>
+        <v>0.47786</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01839</v>
+        <v>0.02198</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.4079</v>
+        <v>0.84196</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01622</v>
+        <v>0.00637</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.30512</v>
+        <v>0.456</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01817</v>
+        <v>0.01997</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.40511</v>
+        <v>0.84295</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01691</v>
+        <v>0.00678</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.30819</v>
+        <v>0.47935</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01781</v>
+        <v>0.02161</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.47683</v>
+        <v>0.82887</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01646</v>
+        <v>0.00681</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.37815</v>
+        <v>0.38255</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01851</v>
+        <v>0.02216</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.47544</v>
+        <v>0.82943</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01641</v>
+        <v>0.00679</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.37907</v>
+        <v>0.39028</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01789</v>
+        <v>0.02209</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.47663</v>
+        <v>0.82891</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01661</v>
+        <v>0.00674</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.37799</v>
+        <v>0.38255</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01849</v>
+        <v>0.02216</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.47535</v>
+        <v>0.82946</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01641</v>
+        <v>0.00673</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.37898</v>
+        <v>0.39053</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01789</v>
+        <v>0.02193</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.3707</v>
+        <v>0.83643</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01916</v>
+        <v>0.00717</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.23881</v>
+        <v>0.39568</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01764</v>
+        <v>0.02142</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.35828</v>
+        <v>0.84128</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01936</v>
+        <v>0.007820000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.25003</v>
+        <v>0.47328</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01585</v>
+        <v>0.02469</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.37121</v>
+        <v>0.83658</v>
       </c>
       <c r="I70" t="n">
-        <v>0.01929</v>
+        <v>0.00711</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.23956</v>
+        <v>0.39551</v>
       </c>
       <c r="I71" t="n">
-        <v>0.01769</v>
+        <v>0.02155</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.35868</v>
+        <v>0.84309</v>
       </c>
       <c r="I72" t="n">
-        <v>0.02004</v>
+        <v>0.00766</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.25211</v>
+        <v>0.48159</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0164</v>
+        <v>0.02354</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.42021</v>
+        <v>0.82942</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0229</v>
+        <v>0.007990000000000001</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.27995</v>
+        <v>0.34574</v>
       </c>
       <c r="I75" t="n">
-        <v>0.02114</v>
+        <v>0.02278</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.41163</v>
+        <v>0.83187</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02146</v>
+        <v>0.00825</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.28393</v>
+        <v>0.3882</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02006</v>
+        <v>0.02459</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.42023</v>
+        <v>0.82943</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0226</v>
+        <v>0.007979999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.27953</v>
+        <v>0.34574</v>
       </c>
       <c r="I79" t="n">
-        <v>0.02086</v>
+        <v>0.02278</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.41102</v>
+        <v>0.83251</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02126</v>
+        <v>0.008319999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.2836</v>
+        <v>0.39085</v>
       </c>
       <c r="I81" t="n">
-        <v>0.02027</v>
+        <v>0.02394</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.4047</v>
+        <v>0.84378</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0188</v>
+        <v>0.00765</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.30055</v>
+        <v>0.45651</v>
       </c>
       <c r="I107" t="n">
-        <v>0.01909</v>
+        <v>0.02214</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.40206</v>
+        <v>0.84396</v>
       </c>
       <c r="I108" t="n">
-        <v>0.01845</v>
+        <v>0.0078</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.30429</v>
+        <v>0.4713</v>
       </c>
       <c r="I109" t="n">
-        <v>0.01873</v>
+        <v>0.0217</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.40553</v>
+        <v>0.84374</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0182</v>
+        <v>0.00772</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.30155</v>
+        <v>0.45592</v>
       </c>
       <c r="I111" t="n">
-        <v>0.01756</v>
+        <v>0.02211</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.40307</v>
+        <v>0.8438099999999999</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01811</v>
+        <v>0.00774</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.30521</v>
+        <v>0.47179</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0191</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.48339</v>
+        <v>0.82799</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02385</v>
+        <v>0.00739</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.38248</v>
+        <v>0.37483</v>
       </c>
       <c r="I115" t="n">
-        <v>0.02499</v>
+        <v>0.02557</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.48233</v>
+        <v>0.82828</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02332</v>
+        <v>0.00741</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.38373</v>
+        <v>0.37998</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0238</v>
+        <v>0.02489</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.48356</v>
+        <v>0.82784</v>
       </c>
       <c r="I118" t="n">
-        <v>0.02379</v>
+        <v>0.00742</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.38248</v>
+        <v>0.37483</v>
       </c>
       <c r="I119" t="n">
-        <v>0.02463</v>
+        <v>0.02557</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.48248</v>
+        <v>0.82822</v>
       </c>
       <c r="I120" t="n">
-        <v>0.02342</v>
+        <v>0.00734</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.38398</v>
+        <v>0.38006</v>
       </c>
       <c r="I121" t="n">
-        <v>0.02379</v>
+        <v>0.02483</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.34751</v>
+        <v>0.85122</v>
       </c>
       <c r="I146" t="n">
-        <v>0.02368</v>
+        <v>0.00768</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.24005</v>
+        <v>0.46689</v>
       </c>
       <c r="I147" t="n">
-        <v>0.02011</v>
+        <v>0.02202</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.34011</v>
+        <v>0.85227</v>
       </c>
       <c r="I148" t="n">
-        <v>0.02422</v>
+        <v>0.008189999999999999</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.24263</v>
+        <v>0.50968</v>
       </c>
       <c r="I149" t="n">
-        <v>0.02126</v>
+        <v>0.02676</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.34827</v>
+        <v>0.85146</v>
       </c>
       <c r="I150" t="n">
-        <v>0.02361</v>
+        <v>0.00774</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.24072</v>
+        <v>0.46697</v>
       </c>
       <c r="I151" t="n">
-        <v>0.01997</v>
+        <v>0.02198</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.34105</v>
+        <v>0.85404</v>
       </c>
       <c r="I152" t="n">
-        <v>0.02356</v>
+        <v>0.007990000000000001</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.24463</v>
+        <v>0.51849</v>
       </c>
       <c r="I153" t="n">
-        <v>0.02124</v>
+        <v>0.02629</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.4017</v>
+        <v>0.83967</v>
       </c>
       <c r="I154" t="n">
-        <v>0.02637</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.27304</v>
+        <v>0.38147</v>
       </c>
       <c r="I155" t="n">
-        <v>0.02636</v>
+        <v>0.02707</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.39747</v>
+        <v>0.8408099999999999</v>
       </c>
       <c r="I156" t="n">
-        <v>0.026</v>
+        <v>0.008540000000000001</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.27404</v>
+        <v>0.40524</v>
       </c>
       <c r="I157" t="n">
-        <v>0.02748</v>
+        <v>0.02814</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.4022</v>
+        <v>0.83973</v>
       </c>
       <c r="I158" t="n">
-        <v>0.02698</v>
+        <v>0.00827</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.27338</v>
+        <v>0.38147</v>
       </c>
       <c r="I159" t="n">
-        <v>0.02693</v>
+        <v>0.02707</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.3982</v>
+        <v>0.84163</v>
       </c>
       <c r="I160" t="n">
-        <v>0.02652</v>
+        <v>0.00835</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.27446</v>
+        <v>0.4069</v>
       </c>
       <c r="I161" t="n">
-        <v>0.02801</v>
+        <v>0.0281</v>
       </c>
     </row>
   </sheetData>
